--- a/Book1 (1).xlsx
+++ b/Book1 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FFD1B4-C105-409F-9F71-40155109ED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90EFEE-A8CC-4C28-AC5C-EA5D67AC7551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{E5E4B190-6007-471A-8B00-A99BD3DDFA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>Present State</t>
   </si>
@@ -327,6 +327,57 @@
   </si>
   <si>
     <t>Continue data capture and write additional bytes to the FIFO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            +-------------------+                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |   STATE_IDLE      |&lt;-------------------+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |  (Wait for frame) |                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            +-------------------+                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     |                               |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     | MRxDV = 1 &amp;&amp; RxStartFrm = 1   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     v                               |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |    STATE_SFD      |                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |   (Start of frame)|                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     | MRxDV = 1                    |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |   STATE_HEADER     |                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            | (Process Header)   |                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     | header_byte_cnt == 14         |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |    STATE_DATA      |                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |  (Capture Payload) |                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     | RxEndFrm = 1                  |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            |   STATE_IDLE      |-------------------+</t>
   </si>
 </sst>
 </file>
@@ -942,15 +993,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A8527-694C-4EA7-A890-EAEEB4867483}">
-  <dimension ref="D3:G23"/>
+  <dimension ref="D3:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
@@ -1223,6 +1274,146 @@
         <v>50</v>
       </c>
     </row>
+    <row r="25" spans="4:7">
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1 (1).xlsx
+++ b/Book1 (1).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90EFEE-A8CC-4C28-AC5C-EA5D67AC7551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90396E81-36C6-49B5-B7DA-6E19621F8747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{E5E4B190-6007-471A-8B00-A99BD3DDFA47}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{E5E4B190-6007-471A-8B00-A99BD3DDFA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>Present State</t>
   </si>
@@ -378,6 +379,60 @@
   </si>
   <si>
     <t xml:space="preserve">            |   STATE_IDLE      |-------------------+</t>
+  </si>
+  <si>
+    <t>Current State</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>i_eth_sb_psel &amp;&amp; fuse_enable</t>
+  </si>
+  <si>
+    <t>SETUP</t>
+  </si>
+  <si>
+    <t>o_eth_sb_pready=0, o_eth_sb_pslverr=0, wr_en=0, rd_en=0</t>
+  </si>
+  <si>
+    <t>Else</t>
+  </si>
+  <si>
+    <t>o_eth_sb_pready=0, o_eth_sb_pslverr=0</t>
+  </si>
+  <si>
+    <t>!i_eth_sb_psel</t>
+  </si>
+  <si>
+    <t>o_eth_sb_pready=0</t>
+  </si>
+  <si>
+    <t>i_eth_sb_psel</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>o_eth_sb_pready=0, wr_en=0, rd_en=0</t>
+  </si>
+  <si>
+    <t>Outputs depend on transaction type and FIFO state</t>
+  </si>
+  <si>
+    <t>i_eth_sb_pwrite &amp;&amp; !fifo_full</t>
+  </si>
+  <si>
+    <t>o_eth_sb_pready=1, wr_en=1, rd_en=0</t>
+  </si>
+  <si>
+    <t>!i_eth_sb_pwrite &amp;&amp; !fifo_empty</t>
+  </si>
+  <si>
+    <t>o_eth_sb_pready=1, rd_en=1, wr_en=0</t>
   </si>
 </sst>
 </file>
@@ -600,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -658,6 +713,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A8527-694C-4EA7-A890-EAEEB4867483}">
   <dimension ref="D3:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1204,7 +1268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="4:7" ht="30">
+    <row r="19" spans="4:7" ht="25.5">
       <c r="D19" s="18" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="30">
+    <row r="20" spans="4:7" ht="25.5">
       <c r="D20" s="18" t="s">
         <v>36</v>
       </c>
@@ -1412,6 +1476,139 @@
     <row r="52" spans="4:4">
       <c r="D52" t="s">
         <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742FBDD6-51DE-414B-92C9-3D13E1C86D37}">
+  <dimension ref="D6:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:7">
+      <c r="D6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Book1 (1).xlsx
+++ b/Book1 (1).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90396E81-36C6-49B5-B7DA-6E19621F8747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A1625-33D9-4C90-AD0E-74321350D5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{E5E4B190-6007-471A-8B00-A99BD3DDFA47}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{E5E4B190-6007-471A-8B00-A99BD3DDFA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="axi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>Present State</t>
   </si>
@@ -433,13 +434,419 @@
   </si>
   <si>
     <t>o_eth_sb_pready=1, rd_en=1, wr_en=0</t>
+  </si>
+  <si>
+    <t>State Table</t>
+  </si>
+  <si>
+    <t>Inputs/Conditions</t>
+  </si>
+  <si>
+    <t>!i_fuse_enable</t>
+  </si>
+  <si>
+    <t>AXI_REQ</t>
+  </si>
+  <si>
+    <r>
+      <t>o_core_ready=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mread=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mwrite=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mready=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mwstrb=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_core_rdata=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_slverr=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_decoderr=0</t>
+    </r>
+  </si>
+  <si>
+    <t>axi_saccept_q=1</t>
+  </si>
+  <si>
+    <t>AXI_RES</t>
+  </si>
+  <si>
+    <r>
+      <t>Read Request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mread=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_maddr=i_core_addr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Write Request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mwrite=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_maddr=i_core_addr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mdata=i_core_wdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mwstrb=i_core_wstrb</t>
+    </r>
+  </si>
+  <si>
+    <t>!i_core_valid</t>
+  </si>
+  <si>
+    <r>
+      <t>Read Response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_core_ready=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_core_rdata=i_axi_sdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_mready=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_slverr=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_decoderr=0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_slverr=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>o_axi_decoderr=0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +867,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -655,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -721,6 +1136,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1487,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742FBDD6-51DE-414B-92C9-3D13E1C86D37}">
   <dimension ref="D6:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1614,4 +2045,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2120-8D00-4EB9-A3BA-19DBAF844FBE}">
+  <dimension ref="C5:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:6" ht="18">
+      <c r="C5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1 (1).xlsx
+++ b/Book1 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A1625-33D9-4C90-AD0E-74321350D5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDBDD03-87D7-45EC-BF65-FE0BA02AC89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{E5E4B190-6007-471A-8B00-A99BD3DDFA47}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
   <si>
     <t>Present State</t>
   </si>
@@ -436,20 +436,28 @@
     <t>o_eth_sb_pready=1, rd_en=1, wr_en=0</t>
   </si>
   <si>
-    <t>State Table</t>
-  </si>
-  <si>
     <t>Inputs/Conditions</t>
   </si>
   <si>
-    <t>!i_fuse_enable</t>
-  </si>
-  <si>
     <t>AXI_REQ</t>
   </si>
   <si>
-    <r>
-      <t>o_core_ready=0</t>
+    <t>AXI_RES</t>
+  </si>
+  <si>
+    <t>Otherwise</t>
+  </si>
+  <si>
+    <r>
+      <t>Default values (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -459,15 +467,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_mread=0</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>axi_saccept_q == 1</t>
+  </si>
+  <si>
+    <t>axi_saccept_q == 0</t>
+  </si>
+  <si>
+    <t>Maintain current state outputs</t>
+  </si>
+  <si>
+    <t>counter &gt;= (byte_length &gt;&gt; 2) - 1</t>
+  </si>
+  <si>
+    <t>Handle response; reset counters</t>
+  </si>
+  <si>
+    <r>
+      <t>read_fifo_write = 1</t>
     </r>
     <r>
       <rPr>
@@ -477,7 +497,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>, pass data to FIFO</t>
+    </r>
+  </si>
+  <si>
+    <t>`(i_axi_sresp == SLVERR_R</t>
+  </si>
+  <si>
+    <t>Maintain response state outputs</t>
+  </si>
+  <si>
+    <t>Wait for a valid AXI response.</t>
+  </si>
+  <si>
+    <t>Remains idle if no conditions
+ for a valid request are met.</t>
+  </si>
+  <si>
+    <t>Issue a read or write request to
+ the AXI bus. Prepare address and
+ write strobes or data.</t>
+  </si>
+  <si>
+    <t>Wait for the AXI bus to accept the 
+transaction.</t>
+  </si>
+  <si>
+    <t>If all transactions are complete, 
+return to idle state.</t>
+  </si>
+  <si>
+    <t>On valid response from AXI, 
+handle the data and continue to
+ the next request.</t>
+  </si>
+  <si>
+    <r>
+      <t>read_fifo_full == 0)</t>
     </r>
     <r>
       <rPr>
@@ -485,7 +541,8 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>o_axi_mwrite=0</t>
+      <t xml:space="preserve">and 
+</t>
     </r>
     <r>
       <rPr>
@@ -495,7 +552,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>counter &lt; (byte_length &gt;&gt; 2) - 1`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set </t>
     </r>
     <r>
       <rPr>
@@ -503,7 +565,7 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>o_axi_mready=0</t>
+      <t>o_axi_mread</t>
     </r>
     <r>
       <rPr>
@@ -513,7 +575,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve"> or </t>
     </r>
     <r>
       <rPr>
@@ -521,7 +583,7 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>o_axi_mwstrb=0</t>
+      <t>o_axi_mwrite</t>
     </r>
     <r>
       <rPr>
@@ -531,7 +593,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve">,
+ increment </t>
     </r>
     <r>
       <rPr>
@@ -539,7 +602,21 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>o_core_rdata=0</t>
+      <t>addr_counter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i_axi_sresp == SLVERR_W)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve">and
+</t>
     </r>
     <r>
       <rPr>
@@ -549,15 +626,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_slverr=0</t>
+      <t>i_axi_svalid == 1`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i_fuse_enable == 0</t>
     </r>
     <r>
       <rPr>
@@ -567,26 +641,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_decoderr=0</t>
-    </r>
-  </si>
-  <si>
-    <t>axi_saccept_q=1</t>
-  </si>
-  <si>
-    <t>AXI_RES</t>
-  </si>
-  <si>
-    <r>
-      <t>Read Request</t>
+      <t xml:space="preserve"> and 
+`(write_fifo_empty == 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i_axi_sresp == OK_R</t>
     </r>
     <r>
       <rPr>
@@ -596,7 +657,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: </t>
+      <t xml:space="preserve"> or
+ </t>
     </r>
     <r>
       <rPr>
@@ -604,7 +666,7 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>o_axi_mread=1</t>
+      <t>i_axi_sresp == OK_W</t>
     </r>
     <r>
       <rPr>
@@ -614,7 +676,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve"> and 
+</t>
     </r>
     <r>
       <rPr>
@@ -622,223 +685,7 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>o_axi_maddr=i_core_addr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Write Request</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_mwrite=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_maddr=i_core_addr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_mdata=i_core_wdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_mwstrb=i_core_wstrb</t>
-    </r>
-  </si>
-  <si>
-    <t>!i_core_valid</t>
-  </si>
-  <si>
-    <r>
-      <t>Read Response</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_core_ready=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_core_rdata=i_axi_sdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_mready=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_slverr=0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_decoderr=0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_slverr=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>o_axi_decoderr=0</t>
+      <t>i_axi_svalid == 1</t>
     </r>
   </si>
 </sst>
@@ -1070,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1141,7 +988,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1153,6 +999,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2049,98 +1908,209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2120-8D00-4EB9-A3BA-19DBAF844FBE}">
-  <dimension ref="C5:F12"/>
+  <dimension ref="C5:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="18">
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="3:13" ht="18">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="3:13" ht="18">
+      <c r="I6" s="23"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="24"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="I8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="K8" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="30">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="24"/>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="25" t="s">
+    </row>
+    <row r="10" spans="3:13" ht="30">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="24"/>
+      <c r="I10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="J10" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="45">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="24"/>
+      <c r="I11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="L11" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="30">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="24"/>
+      <c r="I12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="30">
+      <c r="I13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="45">
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="30">
+      <c r="I15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="I16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="25" t="s">
-        <v>97</v>
+      <c r="K16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
